--- a/biology/Zoologie/Écrevisse_de_torrent/Écrevisse_de_torrent.xlsx
+++ b/biology/Zoologie/Écrevisse_de_torrent/Écrevisse_de_torrent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89crevisse_de_torrent</t>
+          <t>Écrevisse_de_torrent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austropotamobius torrentium
 L'écrevisse de torrent (Austropotamobius torrentium) est une espèce de crustacés décapodes de la famille des Astacidae.  
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89crevisse_de_torrent</t>
+          <t>Écrevisse_de_torrent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taille maximale : 100 mm
 Maturité sexuelle : 3 à 4 ans
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89crevisse_de_torrent</t>
+          <t>Écrevisse_de_torrent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut trouver l'écrevisse de torrent en Europe (Allemagne, Autriche, Bosnie-Herzégovine, Bulgarie, Croatie, France, Grèce, Hongrie, Macédoine, Monténégro, République tchèque, Roumanie, Slovaquie, Serbie, Slovénie, Suisse)  y compris la Russie et l'Ouzbékistan mais également en Afrique (Djibouti) et en Nouvelle-Calédonie.
-En France, l’écrevisse des torrents a longtemps été considérée comme disparue. Elle est représentée par quelques populations (Moselle et Bas-Rhin, peut-être en Haute-Savoie). Elle fait partie des trois espèces natives métropolitaines avec l'écrevisse à pattes rouges (Astacus astacus) et l'écrevisse à pieds blancs (Austropotamobius pallipes) ; six espèces allochtones complètent le panorama astacologique français[1]. 
+En France, l’écrevisse des torrents a longtemps été considérée comme disparue. Elle est représentée par quelques populations (Moselle et Bas-Rhin, peut-être en Haute-Savoie). Elle fait partie des trois espèces natives métropolitaines avec l'écrevisse à pattes rouges (Astacus astacus) et l'écrevisse à pieds blancs (Austropotamobius pallipes) ; six espèces allochtones complètent le panorama astacologique français. 
 </t>
         </is>
       </c>
